--- a/app/libfiles/常用硬件表.xlsx
+++ b/app/libfiles/常用硬件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="硬件检索" sheetId="12" r:id="rId1"/>
@@ -1698,122 +1698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tempearture of Zone 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tempearture of Zone 2</t>
-  </si>
-  <si>
-    <t>第三段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tempearture of Zone 3</t>
-  </si>
-  <si>
-    <t>第四段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature of Zone 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature of Zone 5</t>
-  </si>
-  <si>
-    <t>第六段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature of Zone 6</t>
-  </si>
-  <si>
-    <t>第七段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature of Zone 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八段温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature of Zone 8</t>
-  </si>
-  <si>
-    <t>第一段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 1 Heat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 2 Heat</t>
-  </si>
-  <si>
-    <t>第三段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 3 Heat</t>
-  </si>
-  <si>
-    <t>第四段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 4 Heat</t>
-  </si>
-  <si>
-    <t>第五段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 5 Heat</t>
-  </si>
-  <si>
-    <t>第六段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 6 Heat</t>
-  </si>
-  <si>
-    <t>第七段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 7 Heat</t>
-  </si>
-  <si>
-    <t>第八段加热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone 8 Heat</t>
-  </si>
-  <si>
     <t>/空AO1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2302,6 +2186,112 @@
   <si>
     <t>/EmptyDI1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI2</t>
+  </si>
+  <si>
+    <t>/EmptyTI2</t>
+  </si>
+  <si>
+    <t>/空TI3</t>
+  </si>
+  <si>
+    <t>/EmptyTI3</t>
+  </si>
+  <si>
+    <t>/空TI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI5</t>
+  </si>
+  <si>
+    <t>/EmptyTI5</t>
+  </si>
+  <si>
+    <t>/空TI6</t>
+  </si>
+  <si>
+    <t>/EmptyTI6</t>
+  </si>
+  <si>
+    <t>/空TI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI8</t>
+  </si>
+  <si>
+    <t>/EmptyTI8</t>
+  </si>
+  <si>
+    <t>/空TO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TO2</t>
+  </si>
+  <si>
+    <t>/EmptyTO2</t>
+  </si>
+  <si>
+    <t>/空TO3</t>
+  </si>
+  <si>
+    <t>/EmptyTO3</t>
+  </si>
+  <si>
+    <t>/空TO4</t>
+  </si>
+  <si>
+    <t>/EmptyTO4</t>
+  </si>
+  <si>
+    <t>/空TO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TO6</t>
+  </si>
+  <si>
+    <t>/EmptyTO6</t>
+  </si>
+  <si>
+    <t>/空TO7</t>
+  </si>
+  <si>
+    <t>/EmptyTO7</t>
+  </si>
+  <si>
+    <t>/空TO8</t>
+  </si>
+  <si>
+    <t>/EmptyTO8</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2618,7 +2608,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -7584,10 +7573,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -7628,10 +7617,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -7684,10 +7673,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -7712,10 +7701,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -7724,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -7736,10 +7725,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -7748,10 +7737,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -7768,10 +7757,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -7780,10 +7769,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -7792,10 +7781,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -7804,10 +7793,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -7832,10 +7821,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -7844,10 +7833,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -7856,10 +7845,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -7868,10 +7857,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -7886,10 +7875,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -7898,10 +7887,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -7910,10 +7899,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -7922,10 +7911,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -8009,7 +7998,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33:C34"/>
     </sheetView>
   </sheetViews>
@@ -8073,10 +8062,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -8117,10 +8106,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8169,10 +8158,10 @@
         <v>86</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -8213,10 +8202,10 @@
         <v>88</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -8265,10 +8254,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8309,10 +8298,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8361,10 +8350,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -8405,10 +8394,10 @@
         <v>98</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -8477,10 +8466,10 @@
         <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -8501,10 +8490,10 @@
         <v>71</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -8525,10 +8514,10 @@
         <v>100</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -8549,15 +8538,26 @@
         <v>101</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="D50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A4:D4"/>
@@ -8565,17 +8565,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8590,8 +8579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -8652,19 +8641,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>399</v>
+        <v>536</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>400</v>
+        <v>537</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="52"/>
@@ -8672,41 +8661,41 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>401</v>
+        <v>431</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>402</v>
+        <v>539</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B9" s="55"/>
+        <v>432</v>
+      </c>
+      <c r="B9" s="46"/>
       <c r="C9" s="52"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>403</v>
+        <v>433</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>540</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B11" s="55"/>
+        <v>434</v>
+      </c>
+      <c r="B11" s="46"/>
       <c r="C11" s="52"/>
       <c r="D11" s="9"/>
     </row>
@@ -8720,19 +8709,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="52"/>
@@ -8740,19 +8729,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>407</v>
+        <v>544</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="52"/>
@@ -8760,19 +8749,19 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>409</v>
+        <v>546</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>410</v>
+        <v>547</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="52"/>
@@ -8788,19 +8777,19 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="52"/>
@@ -8808,19 +8797,19 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>413</v>
+        <v>550</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>414</v>
+        <v>551</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="52"/>
@@ -8864,49 +8853,49 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>416</v>
+        <v>553</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>419</v>
+        <v>556</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>420</v>
+        <v>557</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -8920,49 +8909,49 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>424</v>
+        <v>561</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>425</v>
+        <v>562</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>426</v>
+        <v>563</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>427</v>
+        <v>564</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>428</v>
+        <v>565</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>430</v>
+        <v>567</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -9000,6 +8989,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A4:D4"/>
@@ -9007,19 +9009,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9099,10 +9088,10 @@
         <v>165</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -9119,10 +9108,10 @@
         <v>168</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -9139,10 +9128,10 @@
         <v>170</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -9167,10 +9156,10 @@
         <v>172</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -9187,10 +9176,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -9207,10 +9196,10 @@
         <v>176</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -9235,10 +9224,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -9255,10 +9244,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -9296,13 +9285,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B23"/>
@@ -9313,6 +9295,13 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11117,16 +11106,16 @@
       <c r="A6" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
@@ -11181,16 +11170,16 @@
       <c r="A13" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
@@ -11245,16 +11234,16 @@
       <c r="A20" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
@@ -11309,16 +11298,16 @@
       <c r="A27" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
@@ -11373,16 +11362,16 @@
       <c r="A34" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
@@ -11896,10 +11885,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -11908,10 +11897,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -11920,10 +11909,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -11932,10 +11921,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -11950,10 +11939,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -11962,10 +11951,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -11974,10 +11963,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -11986,10 +11975,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12004,10 +11993,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -12016,10 +12005,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12028,10 +12017,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12040,10 +12029,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -12058,10 +12047,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -12070,10 +12059,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12082,10 +12071,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12094,10 +12083,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12239,10 +12228,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12251,10 +12240,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12263,10 +12252,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12275,10 +12264,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12293,10 +12282,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12305,10 +12294,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -12317,10 +12306,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12329,10 +12318,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12347,10 +12336,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -12359,10 +12348,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12371,10 +12360,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12383,10 +12372,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -12401,10 +12390,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -12413,10 +12402,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12425,10 +12414,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12437,10 +12426,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12583,10 +12572,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12595,10 +12584,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12607,10 +12596,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12619,10 +12608,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12637,10 +12626,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12649,10 +12638,10 @@
         <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -12661,10 +12650,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12673,10 +12662,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12691,10 +12680,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -12703,10 +12692,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12715,10 +12704,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12727,10 +12716,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -12745,10 +12734,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -12757,10 +12746,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12769,10 +12758,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12781,10 +12770,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12925,10 +12914,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12937,10 +12926,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12949,10 +12938,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12961,10 +12950,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12979,10 +12968,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12991,10 +12980,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -13003,10 +12992,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -13015,10 +13004,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -13043,10 +13032,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -13055,10 +13044,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -13067,10 +13056,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -13079,10 +13068,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -13097,10 +13086,10 @@
         <v>34</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -13109,10 +13098,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -13121,10 +13110,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -13133,10 +13122,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -13214,7 +13203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
@@ -13280,10 +13269,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -13300,10 +13289,10 @@
         <v>63</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -13320,10 +13309,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -13376,10 +13365,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -13400,10 +13389,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -13428,10 +13417,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -13440,10 +13429,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -13452,10 +13441,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -13464,10 +13453,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -13476,10 +13465,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -13488,10 +13477,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -13500,10 +13489,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -13512,10 +13501,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -13540,10 +13529,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -13552,10 +13541,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -13564,10 +13553,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -13576,10 +13565,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -13588,10 +13577,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -13600,10 +13589,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -13612,10 +13601,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -13624,10 +13613,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="D37" s="9"/>
     </row>

--- a/app/libfiles/常用硬件表.xlsx
+++ b/app/libfiles/常用硬件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="863" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="硬件检索" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="421">
   <si>
     <t>Digital Input（数字量输入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,7 +460,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>端子X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T8+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1313,11 +1377,6 @@
   <si>
     <t>1.能耗监测及统计时选用此模块。
 2.普通电能表无需此模块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.带有多扩展端口的VARAN接口模块。
-2.外接辅机串口连接可考虑此模块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1699,675 +1758,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/空AO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI2</t>
-  </si>
-  <si>
-    <t>/EmptyAI2</t>
-  </si>
-  <si>
-    <t>/空AI3</t>
-  </si>
-  <si>
-    <t>/EmptyAI3</t>
-  </si>
-  <si>
-    <t>/EmptyAO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAI8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyAO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空AI5</t>
-  </si>
-  <si>
-    <t>/EmptyAI5</t>
-  </si>
-  <si>
-    <t>/空AI6</t>
-  </si>
-  <si>
-    <t>/EmptyAI6</t>
-  </si>
-  <si>
-    <t>/空AI8</t>
-  </si>
-  <si>
-    <t>/EmptyAI8</t>
-  </si>
-  <si>
-    <t>TI1-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI1+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI2-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI2+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI3-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI3+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI4-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI4+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI5-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI5+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI6-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI6+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI7-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI7+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI8-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI8+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI1</t>
-  </si>
-  <si>
-    <t>/空DI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI2</t>
-  </si>
-  <si>
-    <t>/空DI2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI1</t>
-  </si>
-  <si>
-    <t>/EmptyDI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI2</t>
-  </si>
-  <si>
-    <t>/EmptyDI2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI3</t>
-  </si>
-  <si>
-    <t>/EmptyDI3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI4</t>
-  </si>
-  <si>
-    <t>/EmptyDI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI3</t>
-  </si>
-  <si>
-    <t>/空DI3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI4</t>
-  </si>
-  <si>
-    <t>/空DI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI5</t>
-  </si>
-  <si>
-    <t>/空DI5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI6</t>
-  </si>
-  <si>
-    <t>/空DI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI7</t>
-  </si>
-  <si>
-    <t>/空DI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI8</t>
-  </si>
-  <si>
-    <t>/空DI8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI5</t>
-  </si>
-  <si>
-    <t>/EmptyDI5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI6</t>
-  </si>
-  <si>
-    <t>/EmptyDI6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI7</t>
-  </si>
-  <si>
-    <t>/EmptyDI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI8</t>
-  </si>
-  <si>
-    <t>/EmptyDI8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空DO1</t>
-  </si>
-  <si>
-    <t>/空DO2</t>
-  </si>
-  <si>
-    <t>/空DO3</t>
-  </si>
-  <si>
-    <t>/空DO4</t>
-  </si>
-  <si>
-    <t>/空DO5</t>
-  </si>
-  <si>
-    <t>/空DO6</t>
-  </si>
-  <si>
-    <t>/空DO7</t>
-  </si>
-  <si>
-    <t>/空DO8</t>
-  </si>
-  <si>
-    <t>/空DO9</t>
-  </si>
-  <si>
-    <t>/空DO10</t>
-  </si>
-  <si>
-    <t>/空DO11</t>
-  </si>
-  <si>
-    <t>/空DO12</t>
-  </si>
-  <si>
-    <t>/空DO13</t>
-  </si>
-  <si>
-    <t>/空DO14</t>
-  </si>
-  <si>
-    <t>/空DO15</t>
-  </si>
-  <si>
-    <t>/空DO16</t>
-  </si>
-  <si>
-    <t>/EmptyDO1</t>
-  </si>
-  <si>
-    <t>/EmptyDO2</t>
-  </si>
-  <si>
-    <t>/EmptyDO3</t>
-  </si>
-  <si>
-    <t>/EmptyDO4</t>
-  </si>
-  <si>
-    <t>/EmptyDO5</t>
-  </si>
-  <si>
-    <t>/EmptyDO6</t>
-  </si>
-  <si>
-    <t>/EmptyDO7</t>
-  </si>
-  <si>
-    <t>/EmptyDO8</t>
-  </si>
-  <si>
-    <t>/EmptyDO9</t>
-  </si>
-  <si>
-    <t>/EmptyDO10</t>
-  </si>
-  <si>
-    <t>/EmptyDO11</t>
-  </si>
-  <si>
-    <t>/EmptyDO12</t>
-  </si>
-  <si>
-    <t>/EmptyDO13</t>
-  </si>
-  <si>
-    <t>/EmptyDO14</t>
-  </si>
-  <si>
-    <t>/EmptyDO15</t>
-  </si>
-  <si>
-    <t>/EmptyDO16</t>
-  </si>
-  <si>
-    <t>/EmptyDI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyDI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyTI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TI2</t>
-  </si>
-  <si>
-    <t>/EmptyTI2</t>
-  </si>
-  <si>
-    <t>/空TI3</t>
-  </si>
-  <si>
-    <t>/EmptyTI3</t>
-  </si>
-  <si>
-    <t>/空TI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyTI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TI5</t>
-  </si>
-  <si>
-    <t>/EmptyTI5</t>
-  </si>
-  <si>
-    <t>/空TI6</t>
-  </si>
-  <si>
-    <t>/EmptyTI6</t>
-  </si>
-  <si>
-    <t>/空TI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyTI7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TI8</t>
-  </si>
-  <si>
-    <t>/EmptyTI8</t>
-  </si>
-  <si>
-    <t>/空TO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyTO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TO2</t>
-  </si>
-  <si>
-    <t>/EmptyTO2</t>
-  </si>
-  <si>
-    <t>/空TO3</t>
-  </si>
-  <si>
-    <t>/EmptyTO3</t>
-  </si>
-  <si>
-    <t>/空TO4</t>
-  </si>
-  <si>
-    <t>/EmptyTO4</t>
-  </si>
-  <si>
-    <t>/空TO5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyTO5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空TO6</t>
-  </si>
-  <si>
-    <t>/EmptyTO6</t>
-  </si>
-  <si>
-    <t>/空TO7</t>
-  </si>
-  <si>
-    <t>/EmptyTO7</t>
-  </si>
-  <si>
-    <t>/空TO8</t>
-  </si>
-  <si>
-    <t>/EmptyTO8</t>
-  </si>
-  <si>
     <t>Ethernet连接模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>以太网集线器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>001A719</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以太网集线器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SE051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.带有多扩展端口的VARAN接口模块。
+2.外接辅机串口连接可考虑此模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.带有多扩展端口的Ethernet接口模块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接线位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO 名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hardware：SE 051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethernet Port (VtE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子X5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+24 V supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24V供电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5607,10 +5023,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C26" sqref="C26"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5623,93 +5039,93 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
       <c r="A4" s="9" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5719,23 +5135,23 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5745,51 +5161,51 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="28" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="9" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>321</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5799,151 +5215,151 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="28" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="28" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="27">
       <c r="A30" s="9" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5953,65 +5369,65 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6021,23 +5437,23 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>568</v>
+        <v>414</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>571</v>
+        <v>417</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>572</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7599,8 +7015,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7612,17 +7028,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7636,7 +7052,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -7662,12 +7078,8 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>400</v>
-      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -7706,12 +7118,8 @@
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>403</v>
-      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -7762,12 +7170,8 @@
       <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>406</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="13.5">
@@ -7790,48 +7194,32 @@
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>534</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>464</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
@@ -7846,48 +7234,32 @@
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>478</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>480</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>482</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>484</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="13.5">
@@ -7910,102 +7282,72 @@
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>518</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>519</v>
-      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>520</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>521</v>
-      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>522</v>
-      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>524</v>
-      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>525</v>
-      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
@@ -8089,7 +7431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C34"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8101,17 +7443,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8125,7 +7467,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -8133,7 +7475,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -8151,12 +7493,8 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>400</v>
-      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -8195,12 +7533,8 @@
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>403</v>
-      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -8247,12 +7581,8 @@
       <c r="A15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>405</v>
-      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
@@ -8291,12 +7621,8 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>410</v>
-      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
@@ -8343,12 +7669,8 @@
       <c r="A24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>412</v>
-      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -8387,12 +7709,8 @@
       <c r="A28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>413</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>414</v>
-      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
@@ -8439,12 +7757,8 @@
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>416</v>
-      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
@@ -8483,12 +7797,8 @@
       <c r="A37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>418</v>
-      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
@@ -8525,7 +7835,7 @@
     </row>
     <row r="41" spans="1:4" ht="13.5">
       <c r="A41" s="48" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -8555,12 +7865,8 @@
       <c r="A44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>406</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4">
@@ -8579,12 +7885,8 @@
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4">
@@ -8603,12 +7905,8 @@
       <c r="A48" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>420</v>
-      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4">
@@ -8627,16 +7925,23 @@
       <c r="A50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A4:D4"/>
@@ -8644,17 +7949,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8671,7 +7965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8683,17 +7977,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8707,7 +8001,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -8715,7 +8009,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="48" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -8731,19 +8025,15 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>537</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>430</v>
+        <v>107</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="53"/>
@@ -8751,19 +8041,15 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>539</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>432</v>
+        <v>109</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="53"/>
@@ -8771,19 +8057,15 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>541</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="53"/>
@@ -8791,7 +8073,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
@@ -8799,19 +8081,15 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>543</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>436</v>
+        <v>114</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="53"/>
@@ -8819,19 +8097,15 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>545</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>438</v>
+        <v>116</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="53"/>
@@ -8839,19 +8113,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>547</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="53"/>
@@ -8867,19 +8137,15 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>549</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>442</v>
+        <v>120</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="53"/>
@@ -8887,19 +8153,15 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>551</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>444</v>
+        <v>122</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="53"/>
@@ -8907,19 +8169,19 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
@@ -8943,111 +8205,79 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>553</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>555</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>557</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>559</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>561</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>563</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>565</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>567</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="17"/>
@@ -9055,13 +8285,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -9073,12 +8303,25 @@
         <v>77</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A4:D4"/>
@@ -9086,19 +8329,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9115,7 +8345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9127,17 +8357,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -9151,7 +8381,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -9159,7 +8389,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -9175,67 +8405,55 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>400</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="52"/>
+        <v>182</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>403</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="52"/>
+        <v>185</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>405</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
+        <v>187</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
@@ -9243,67 +8461,55 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>410</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="52"/>
+        <v>189</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>424</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
+        <v>191</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>425</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>426</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
+        <v>193</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -9311,47 +8517,39 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>416</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="52"/>
+        <v>195</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>428</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
+        <v>197</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="22" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>25</v>
@@ -9375,13 +8573,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B23"/>
@@ -9392,6 +8583,13 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9420,22 +8618,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9444,7 +8642,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -9452,7 +8650,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9460,7 +8658,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -9468,7 +8666,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -9476,7 +8674,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -9484,7 +8682,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -9492,7 +8690,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="20" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -9500,7 +8698,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="38" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -9508,7 +8706,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -9516,7 +8714,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="38" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -9557,22 +8755,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9590,7 +8788,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -9599,7 +8797,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9609,7 +8807,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -9618,7 +8816,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -9627,7 +8825,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="34" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -9636,7 +8834,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -9645,7 +8843,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -9654,7 +8852,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -9663,7 +8861,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -9672,7 +8870,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -9681,7 +8879,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="38" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -9690,7 +8888,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -9699,7 +8897,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="38" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -9708,7 +8906,7 @@
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -9717,7 +8915,7 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="34" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -9726,7 +8924,7 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -9735,7 +8933,7 @@
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="34" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -9744,7 +8942,7 @@
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="17"/>
@@ -9753,13 +8951,13 @@
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -9779,7 +8977,7 @@
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
@@ -9788,7 +8986,7 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="38" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -9797,7 +8995,7 @@
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="20" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="18"/>
@@ -9806,7 +9004,7 @@
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="38" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -9815,7 +9013,7 @@
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="20" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="18"/>
@@ -9823,7 +9021,7 @@
     </row>
     <row r="29" spans="1:5" ht="15">
       <c r="A29" s="34" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -9863,22 +9061,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9895,7 +9093,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9903,7 +9101,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9911,7 +9109,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -9919,7 +9117,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -9927,7 +9125,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -9935,7 +9133,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -9943,7 +9141,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -9951,7 +9149,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -9959,7 +9157,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="38" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -9967,7 +9165,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -9975,7 +9173,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="38" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -9983,7 +9181,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -9991,13 +9189,13 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -10015,7 +9213,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
@@ -10023,7 +9221,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="38" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -10064,22 +9262,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10096,7 +9294,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10104,7 +9302,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -10112,7 +9310,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10120,7 +9318,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -10128,7 +9326,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="34" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -10136,7 +9334,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -10144,7 +9342,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -10152,7 +9350,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -10160,7 +9358,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -10168,7 +9366,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -10176,13 +9374,13 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -10200,7 +9398,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="17"/>
@@ -10208,7 +9406,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="38" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -10248,22 +9446,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10272,7 +9470,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -10280,7 +9478,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -10288,7 +9486,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -10296,7 +9494,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -10304,7 +9502,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -10312,7 +9510,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -10320,7 +9518,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -10328,7 +9526,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -10336,7 +9534,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -10344,7 +9542,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -10352,7 +9550,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -10360,7 +9558,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="34" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -10368,7 +9566,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -10376,7 +9574,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="34" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -10384,7 +9582,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="2" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -10392,7 +9590,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="34" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -10400,7 +9598,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -10408,7 +9606,7 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="34" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -10416,7 +9614,7 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="17"/>
@@ -10424,7 +9622,7 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="34" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -10432,7 +9630,7 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -10440,7 +9638,7 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="34" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -10448,7 +9646,7 @@
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -10456,7 +9654,7 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="34" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -10464,7 +9662,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="17"/>
@@ -10472,7 +9670,7 @@
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="38" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -10488,25 +9686,25 @@
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -10566,22 +9764,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10598,7 +9796,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10606,7 +9804,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -10614,7 +9812,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10630,7 +9828,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="2" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="17"/>
@@ -10638,7 +9836,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -10646,7 +9844,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="8" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -10654,7 +9852,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -10662,7 +9860,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -10670,7 +9868,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -10678,7 +9876,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -10686,7 +9884,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -10694,7 +9892,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -10702,7 +9900,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -10758,49 +9956,49 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -10814,7 +10012,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="17"/>
@@ -10876,7 +10074,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="30" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
@@ -10887,12 +10085,12 @@
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="30" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -10900,7 +10098,7 @@
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="17"/>
@@ -10920,19 +10118,19 @@
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="8" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="51"/>
@@ -10940,7 +10138,7 @@
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="8" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -10960,19 +10158,19 @@
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="8" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="51"/>
@@ -10980,7 +10178,7 @@
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="8" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -11026,22 +10224,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -11050,7 +10248,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11058,7 +10256,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -11066,7 +10264,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -11074,7 +10272,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11082,7 +10280,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -11090,25 +10288,25 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -11133,7 +10331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11145,17 +10343,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -11169,7 +10367,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="5" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11186,7 +10384,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="8" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="51"/>
@@ -11194,7 +10392,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -11202,7 +10400,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -11210,7 +10408,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="8" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -11230,19 +10428,19 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="11" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -11250,7 +10448,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="51"/>
@@ -11258,7 +10456,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -11266,7 +10464,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -11274,7 +10472,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -11294,19 +10492,19 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="11" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
@@ -11314,7 +10512,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="8" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="51"/>
@@ -11322,7 +10520,7 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="8" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -11330,7 +10528,7 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="8" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -11338,7 +10536,7 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="8" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -11358,19 +10556,19 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="11" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -11378,7 +10576,7 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="8" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="51"/>
@@ -11386,7 +10584,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="8" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
@@ -11394,7 +10592,7 @@
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="8" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
@@ -11402,7 +10600,7 @@
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="8" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -11422,19 +10620,19 @@
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="11" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="2" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="17"/>
@@ -11442,7 +10640,7 @@
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="8" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="51"/>
@@ -11450,7 +10648,7 @@
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="8" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
@@ -11458,7 +10656,7 @@
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="8" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -11466,7 +10664,7 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="8" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -11486,42 +10684,42 @@
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="11" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -11575,27 +10773,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="31" t="s">
-        <v>573</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>574</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>575</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="5" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -11603,7 +10799,7 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
-        <v>577</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11611,7 +10807,7 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="34" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -11619,7 +10815,7 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="20" t="s">
-        <v>579</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -11627,7 +10823,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="34" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -11635,7 +10831,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20" t="s">
-        <v>580</v>
+        <v>11</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -11643,7 +10839,7 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="34" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -11651,7 +10847,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="20" t="s">
-        <v>581</v>
+        <v>16</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -11659,7 +10855,7 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="34" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -11667,7 +10863,7 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="20" t="s">
-        <v>582</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -11675,7 +10871,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="34" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -11683,32 +10879,31 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="13" t="s">
-        <v>583</v>
+        <v>160</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>584</v>
+        <v>143</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>583</v>
+        <v>160</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="13" t="s">
-        <v>585</v>
+        <v>76</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>586</v>
+        <v>77</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>585</v>
+        <v>76</v>
       </c>
       <c r="D14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11718,7 +10913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11730,22 +10925,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -11754,7 +10949,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11762,7 +10957,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11770,7 +10965,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -11778,7 +10973,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11786,7 +10981,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -11794,7 +10989,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -11802,7 +10997,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="20" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -11810,7 +11005,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -11818,7 +11013,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -11826,7 +11021,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -11834,7 +11029,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="20" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="18"/>
@@ -11842,7 +11037,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="42" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -11850,7 +11045,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="20" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="18"/>
@@ -11858,7 +11053,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="34" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -11866,7 +11061,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="20" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
@@ -11874,7 +11069,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="34" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -11882,7 +11077,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="20" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="18"/>
@@ -11890,25 +11085,25 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="13" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -11946,22 +11141,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -11971,7 +11166,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11979,7 +11174,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -11987,7 +11182,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -11995,7 +11190,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -12003,7 +11198,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -12011,25 +11206,25 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -12053,7 +11248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12065,17 +11260,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12089,7 +11284,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -12115,210 +11310,152 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>458</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>464</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>478</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>480</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>482</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>484</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>494</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>495</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>496</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>497</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>493</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>499</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>500</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -12396,7 +11533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12408,17 +11545,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12432,7 +11569,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -12458,210 +11595,152 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>458</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>464</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>478</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>480</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>482</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>484</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>494</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>495</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>496</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>497</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>493</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>498</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>499</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>500</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -12739,7 +11818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12752,17 +11831,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12776,7 +11855,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -12802,210 +11881,152 @@
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>518</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>519</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>520</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>521</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>522</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>524</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>525</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>526</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>527</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>528</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>529</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>530</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>531</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>532</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>533</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -13082,7 +12103,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13094,17 +12115,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13118,7 +12139,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -13144,102 +12165,72 @@
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>457</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>459</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>461</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>463</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>477</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>479</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>481</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>483</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="13.5">
@@ -13262,102 +12253,72 @@
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>518</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>519</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>520</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>521</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>522</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>524</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>525</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
@@ -13435,8 +12396,8 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13449,17 +12410,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13473,7 +12434,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -13499,12 +12460,8 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>400</v>
-      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -13519,12 +12476,8 @@
       <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>403</v>
-      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
@@ -13539,12 +12492,8 @@
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>405</v>
-      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -13595,12 +12544,8 @@
       <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>406</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
@@ -13619,12 +12564,8 @@
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="13.5">
@@ -13647,96 +12588,64 @@
       <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>535</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>459</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>461</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>463</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>477</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>479</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>481</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>483</v>
-      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="13.5">
@@ -13759,96 +12668,64 @@
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>518</v>
-      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>519</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>520</v>
-      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>521</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>522</v>
-      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>524</v>
-      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>525</v>
-      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">

--- a/app/libfiles/常用硬件表.xlsx
+++ b/app/libfiles/常用硬件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="863"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="863" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="硬件检索" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="587">
   <si>
     <t>Digital Input（数字量输入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,71 +460,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T1-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>端子X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T4-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T4+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T5-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T5+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T7-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T7+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T8-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T8+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1377,6 +1313,11 @@
   <si>
     <t>1.能耗监测及统计时选用此模块。
 2.普通电能表无需此模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.带有多扩展端口的VARAN接口模块。
+2.外接辅机串口连接可考虑此模块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1758,32 +1699,675 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/空AO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI2</t>
+  </si>
+  <si>
+    <t>/EmptyAI2</t>
+  </si>
+  <si>
+    <t>/空AI3</t>
+  </si>
+  <si>
+    <t>/EmptyAI3</t>
+  </si>
+  <si>
+    <t>/EmptyAO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyAO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空AI5</t>
+  </si>
+  <si>
+    <t>/EmptyAI5</t>
+  </si>
+  <si>
+    <t>/空AI6</t>
+  </si>
+  <si>
+    <t>/EmptyAI6</t>
+  </si>
+  <si>
+    <t>/空AI8</t>
+  </si>
+  <si>
+    <t>/EmptyAI8</t>
+  </si>
+  <si>
+    <t>TI1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI3+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI4-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI5-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI6-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI6+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI7-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI7+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI8-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI8+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI1</t>
+  </si>
+  <si>
+    <t>/空DI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI2</t>
+  </si>
+  <si>
+    <t>/空DI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI2</t>
+  </si>
+  <si>
+    <t>/EmptyDI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI3</t>
+  </si>
+  <si>
+    <t>/EmptyDI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI4</t>
+  </si>
+  <si>
+    <t>/EmptyDI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI3</t>
+  </si>
+  <si>
+    <t>/空DI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI4</t>
+  </si>
+  <si>
+    <t>/空DI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI5</t>
+  </si>
+  <si>
+    <t>/空DI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI6</t>
+  </si>
+  <si>
+    <t>/空DI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI7</t>
+  </si>
+  <si>
+    <t>/空DI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI8</t>
+  </si>
+  <si>
+    <t>/空DI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI5</t>
+  </si>
+  <si>
+    <t>/EmptyDI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI6</t>
+  </si>
+  <si>
+    <t>/EmptyDI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI7</t>
+  </si>
+  <si>
+    <t>/EmptyDI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI8</t>
+  </si>
+  <si>
+    <t>/EmptyDI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DO1</t>
+  </si>
+  <si>
+    <t>/空DO2</t>
+  </si>
+  <si>
+    <t>/空DO3</t>
+  </si>
+  <si>
+    <t>/空DO4</t>
+  </si>
+  <si>
+    <t>/空DO5</t>
+  </si>
+  <si>
+    <t>/空DO6</t>
+  </si>
+  <si>
+    <t>/空DO7</t>
+  </si>
+  <si>
+    <t>/空DO8</t>
+  </si>
+  <si>
+    <t>/空DO9</t>
+  </si>
+  <si>
+    <t>/空DO10</t>
+  </si>
+  <si>
+    <t>/空DO11</t>
+  </si>
+  <si>
+    <t>/空DO12</t>
+  </si>
+  <si>
+    <t>/空DO13</t>
+  </si>
+  <si>
+    <t>/空DO14</t>
+  </si>
+  <si>
+    <t>/空DO15</t>
+  </si>
+  <si>
+    <t>/空DO16</t>
+  </si>
+  <si>
+    <t>/EmptyDO1</t>
+  </si>
+  <si>
+    <t>/EmptyDO2</t>
+  </si>
+  <si>
+    <t>/EmptyDO3</t>
+  </si>
+  <si>
+    <t>/EmptyDO4</t>
+  </si>
+  <si>
+    <t>/EmptyDO5</t>
+  </si>
+  <si>
+    <t>/EmptyDO6</t>
+  </si>
+  <si>
+    <t>/EmptyDO7</t>
+  </si>
+  <si>
+    <t>/EmptyDO8</t>
+  </si>
+  <si>
+    <t>/EmptyDO9</t>
+  </si>
+  <si>
+    <t>/EmptyDO10</t>
+  </si>
+  <si>
+    <t>/EmptyDO11</t>
+  </si>
+  <si>
+    <t>/EmptyDO12</t>
+  </si>
+  <si>
+    <t>/EmptyDO13</t>
+  </si>
+  <si>
+    <t>/EmptyDO14</t>
+  </si>
+  <si>
+    <t>/EmptyDO15</t>
+  </si>
+  <si>
+    <t>/EmptyDO16</t>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI2</t>
+  </si>
+  <si>
+    <t>/EmptyTI2</t>
+  </si>
+  <si>
+    <t>/空TI3</t>
+  </si>
+  <si>
+    <t>/EmptyTI3</t>
+  </si>
+  <si>
+    <t>/空TI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI5</t>
+  </si>
+  <si>
+    <t>/EmptyTI5</t>
+  </si>
+  <si>
+    <t>/空TI6</t>
+  </si>
+  <si>
+    <t>/EmptyTI6</t>
+  </si>
+  <si>
+    <t>/空TI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TI8</t>
+  </si>
+  <si>
+    <t>/EmptyTI8</t>
+  </si>
+  <si>
+    <t>/空TO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TO2</t>
+  </si>
+  <si>
+    <t>/EmptyTO2</t>
+  </si>
+  <si>
+    <t>/空TO3</t>
+  </si>
+  <si>
+    <t>/EmptyTO3</t>
+  </si>
+  <si>
+    <t>/空TO4</t>
+  </si>
+  <si>
+    <t>/EmptyTO4</t>
+  </si>
+  <si>
+    <t>/空TO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyTO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空TO6</t>
+  </si>
+  <si>
+    <t>/EmptyTO6</t>
+  </si>
+  <si>
+    <t>/空TO7</t>
+  </si>
+  <si>
+    <t>/EmptyTO7</t>
+  </si>
+  <si>
+    <t>/空TO8</t>
+  </si>
+  <si>
+    <t>/EmptyTO8</t>
+  </si>
+  <si>
     <t>Ethernet连接模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>001A719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>以太网集线器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001A719</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SE051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.带有多扩展端口的VARAN接口模块。
-2.外接辅机串口连接可考虑此模块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.带有多扩展端口的Ethernet接口模块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>接线位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO 名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hardware：SE 051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet Port (VtE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+24 V supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24V供电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5023,10 +5607,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C26" sqref="C26"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5039,93 +5623,93 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5135,23 +5719,23 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5161,51 +5745,51 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="28" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="9" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>418</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5215,151 +5799,151 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="28" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="28" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="27">
       <c r="A30" s="9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5369,65 +5953,65 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5437,23 +6021,23 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>417</v>
+        <v>571</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>419</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7015,8 +7599,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7028,17 +7612,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7052,7 +7636,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -7078,8 +7662,12 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -7118,8 +7706,12 @@
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -7170,8 +7762,12 @@
       <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="13.5">
@@ -7194,32 +7790,48 @@
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
@@ -7234,32 +7846,48 @@
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>478</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>480</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>484</v>
+      </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="13.5">
@@ -7282,72 +7910,102 @@
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>518</v>
+      </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>519</v>
+      </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>520</v>
+      </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="17"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
@@ -7431,7 +8089,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7443,17 +8101,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7467,7 +8125,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -7475,7 +8133,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -7493,8 +8151,12 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -7533,8 +8195,12 @@
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -7581,8 +8247,12 @@
       <c r="A15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>405</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
@@ -7621,8 +8291,12 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
+      <c r="B19" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>410</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
@@ -7669,8 +8343,12 @@
       <c r="A24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>412</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -7709,8 +8387,12 @@
       <c r="A28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>414</v>
+      </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
@@ -7757,8 +8439,12 @@
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>416</v>
+      </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
@@ -7797,8 +8483,12 @@
       <c r="A37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="51"/>
+      <c r="B37" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>418</v>
+      </c>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
@@ -7835,7 +8525,7 @@
     </row>
     <row r="41" spans="1:4" ht="13.5">
       <c r="A41" s="48" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -7865,8 +8555,12 @@
       <c r="A44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4">
@@ -7885,8 +8579,12 @@
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>408</v>
+      </c>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4">
@@ -7905,8 +8603,12 @@
       <c r="A48" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4">
@@ -7925,23 +8627,16 @@
       <c r="A50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>422</v>
+      </c>
       <c r="D50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A4:D4"/>
@@ -7949,6 +8644,17 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7965,7 +8671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7977,17 +8683,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8001,7 +8707,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -8009,7 +8715,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="48" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -8025,15 +8731,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="53"/>
+        <v>429</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>537</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="53"/>
@@ -8041,15 +8751,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="53"/>
+        <v>431</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>539</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>109</v>
+        <v>432</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="53"/>
@@ -8057,15 +8771,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="53"/>
+        <v>433</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>541</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>111</v>
+        <v>434</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="53"/>
@@ -8073,7 +8791,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
@@ -8081,15 +8799,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
+        <v>435</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>543</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>114</v>
+        <v>436</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="53"/>
@@ -8097,15 +8819,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="53"/>
+        <v>437</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>545</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="53"/>
@@ -8113,15 +8839,19 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="53"/>
+        <v>439</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>547</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="53"/>
@@ -8137,15 +8867,19 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="53"/>
+        <v>441</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>549</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>120</v>
+        <v>442</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="53"/>
@@ -8153,15 +8887,19 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
+        <v>443</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>551</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>444</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="53"/>
@@ -8169,19 +8907,19 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
@@ -8205,79 +8943,111 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
+        <v>445</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8"/>
+        <v>446</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>555</v>
+      </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
+        <v>447</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
+        <v>448</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
+        <v>449</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>561</v>
+      </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
+        <v>450</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
+        <v>451</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
+        <v>452</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>567</v>
+      </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="17"/>
@@ -8285,13 +9055,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -8303,12 +9073,25 @@
         <v>77</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -8316,19 +9099,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8345,7 +9115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8357,17 +9127,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -8381,7 +9151,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -8389,7 +9159,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -8405,55 +9175,67 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="53"/>
+        <v>165</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="53"/>
+        <v>166</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="53"/>
+        <v>169</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="53"/>
+        <v>170</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>405</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="53"/>
+        <v>171</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
@@ -8461,55 +9243,67 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
+        <v>172</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>410</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
+        <v>173</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="53"/>
+        <v>174</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>424</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="53"/>
+        <v>175</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="53"/>
+        <v>176</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>426</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="53"/>
+        <v>177</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -8517,39 +9311,47 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="53"/>
+        <v>178</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>416</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="53"/>
+        <v>179</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
+        <v>180</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>428</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
+        <v>181</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>25</v>
@@ -8573,6 +9375,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B23"/>
@@ -8583,13 +9392,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8618,22 +9420,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -8642,7 +9444,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -8650,7 +9452,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -8658,7 +9460,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -8666,7 +9468,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -8674,7 +9476,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -8682,7 +9484,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -8690,7 +9492,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="20" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -8698,7 +9500,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="38" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -8706,7 +9508,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="20" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -8714,7 +9516,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="38" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -8755,22 +9557,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -8788,7 +9590,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -8797,7 +9599,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -8807,7 +9609,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -8816,7 +9618,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -8825,7 +9627,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="34" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -8834,7 +9636,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -8843,7 +9645,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -8852,7 +9654,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -8861,7 +9663,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8870,7 +9672,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -8879,7 +9681,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="38" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -8888,7 +9690,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -8897,7 +9699,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="38" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -8906,7 +9708,7 @@
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -8915,7 +9717,7 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="34" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -8924,7 +9726,7 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -8933,7 +9735,7 @@
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="34" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -8942,7 +9744,7 @@
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="17"/>
@@ -8951,13 +9753,13 @@
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -8977,7 +9779,7 @@
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
@@ -8986,7 +9788,7 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="38" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -8995,7 +9797,7 @@
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="20" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="18"/>
@@ -9004,7 +9806,7 @@
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="38" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -9013,7 +9815,7 @@
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="20" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="18"/>
@@ -9021,7 +9823,7 @@
     </row>
     <row r="29" spans="1:5" ht="15">
       <c r="A29" s="34" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -9061,22 +9863,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9093,7 +9895,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9101,7 +9903,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9109,7 +9911,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -9117,7 +9919,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -9125,7 +9927,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -9133,7 +9935,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -9141,7 +9943,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -9149,7 +9951,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -9157,7 +9959,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="38" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -9165,7 +9967,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -9173,7 +9975,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="38" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -9181,7 +9983,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -9189,13 +9991,13 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -9213,7 +10015,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
@@ -9221,7 +10023,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="38" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -9262,22 +10064,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9294,7 +10096,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9302,7 +10104,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9310,7 +10112,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -9318,7 +10120,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -9326,7 +10128,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="34" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -9334,7 +10136,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -9342,7 +10144,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="38" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -9350,7 +10152,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -9358,7 +10160,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -9366,7 +10168,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -9374,13 +10176,13 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -9398,7 +10200,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="17"/>
@@ -9406,7 +10208,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="38" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -9446,22 +10248,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9470,7 +10272,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -9478,7 +10280,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -9486,7 +10288,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9494,7 +10296,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="34" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -9502,7 +10304,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
@@ -9510,7 +10312,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -9518,7 +10320,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
@@ -9526,7 +10328,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -9534,7 +10336,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -9542,7 +10344,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -9550,7 +10352,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
@@ -9558,7 +10360,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="34" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -9566,7 +10368,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
@@ -9574,7 +10376,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="34" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -9582,7 +10384,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -9590,7 +10392,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="34" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -9598,7 +10400,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -9606,7 +10408,7 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="34" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -9614,7 +10416,7 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="17"/>
@@ -9622,7 +10424,7 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="34" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -9630,7 +10432,7 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -9638,7 +10440,7 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="34" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -9646,7 +10448,7 @@
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -9654,7 +10456,7 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="34" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -9662,7 +10464,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="17"/>
@@ -9670,7 +10472,7 @@
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="38" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -9686,25 +10488,25 @@
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -9764,22 +10566,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -9796,7 +10598,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -9804,7 +10606,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -9812,7 +10614,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -9828,7 +10630,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="17"/>
@@ -9836,7 +10638,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -9844,7 +10646,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="8" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -9852,7 +10654,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -9860,7 +10662,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -9868,7 +10670,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -9876,7 +10678,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -9884,7 +10686,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -9892,7 +10694,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="8" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -9900,7 +10702,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
@@ -9956,49 +10758,49 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -10012,7 +10814,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="17"/>
@@ -10074,7 +10876,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="30" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
@@ -10085,12 +10887,12 @@
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="30" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -10098,7 +10900,7 @@
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="17"/>
@@ -10118,19 +10920,19 @@
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="8" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="51"/>
@@ -10138,7 +10940,7 @@
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="8" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -10158,19 +10960,19 @@
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="8" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="51"/>
@@ -10178,7 +10980,7 @@
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="8" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -10224,22 +11026,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10248,7 +11050,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -10256,7 +11058,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10264,7 +11066,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -10272,7 +11074,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10280,7 +11082,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -10288,25 +11090,25 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -10331,7 +11133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10343,17 +11145,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -10367,7 +11169,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="5" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -10384,7 +11186,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="8" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="51"/>
@@ -10392,7 +11194,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -10400,7 +11202,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -10408,7 +11210,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="8" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -10428,19 +11230,19 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
@@ -10448,7 +11250,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="51"/>
@@ -10456,7 +11258,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -10464,7 +11266,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="8" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -10472,7 +11274,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -10492,19 +11294,19 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
@@ -10512,7 +11314,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="8" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="51"/>
@@ -10520,7 +11322,7 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="8" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -10528,7 +11330,7 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="8" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -10536,7 +11338,7 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="8" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -10556,19 +11358,19 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
@@ -10576,7 +11378,7 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="51"/>
@@ -10584,7 +11386,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="8" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
@@ -10592,7 +11394,7 @@
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="8" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
@@ -10600,7 +11402,7 @@
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -10620,19 +11422,19 @@
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="17"/>
@@ -10640,7 +11442,7 @@
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="8" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="51"/>
@@ -10648,7 +11450,7 @@
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="8" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
@@ -10656,7 +11458,7 @@
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="8" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -10664,7 +11466,7 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="8" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -10684,42 +11486,42 @@
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -10773,25 +11575,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>573</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>574</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>575</v>
       </c>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="5" t="s">
-        <v>420</v>
+        <v>576</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10799,7 +11603,7 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>577</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -10807,7 +11611,7 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="34" t="s">
-        <v>145</v>
+        <v>578</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -10815,7 +11619,7 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="20" t="s">
-        <v>6</v>
+        <v>579</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -10823,7 +11627,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="34" t="s">
-        <v>145</v>
+        <v>578</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -10831,7 +11635,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="20" t="s">
-        <v>11</v>
+        <v>580</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -10839,7 +11643,7 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="34" t="s">
-        <v>145</v>
+        <v>578</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -10847,7 +11651,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="20" t="s">
-        <v>16</v>
+        <v>581</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -10855,7 +11659,7 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="34" t="s">
-        <v>145</v>
+        <v>578</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -10863,7 +11667,7 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="20" t="s">
-        <v>27</v>
+        <v>582</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -10871,7 +11675,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="34" t="s">
-        <v>145</v>
+        <v>578</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -10879,31 +11683,32 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="13" t="s">
-        <v>160</v>
+        <v>583</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>143</v>
+        <v>584</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>160</v>
+        <v>583</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="13" t="s">
-        <v>76</v>
+        <v>585</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>586</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>76</v>
+        <v>585</v>
       </c>
       <c r="D14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10913,7 +11718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D21"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10925,22 +11730,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -10949,7 +11754,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -10957,7 +11762,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="34" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -10965,7 +11770,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
@@ -10973,7 +11778,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10981,7 +11786,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -10989,7 +11794,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="38" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -10997,7 +11802,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="20" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
@@ -11005,7 +11810,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -11013,7 +11818,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="20" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -11021,7 +11826,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="34" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -11029,7 +11834,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="20" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="18"/>
@@ -11037,7 +11842,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="42" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -11045,7 +11850,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="20" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="18"/>
@@ -11053,7 +11858,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="34" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -11061,7 +11866,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="20" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
@@ -11069,7 +11874,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -11077,7 +11882,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="20" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="18"/>
@@ -11085,25 +11890,25 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -11141,22 +11946,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="17"/>
@@ -11166,7 +11971,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11174,7 +11979,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="38" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -11182,7 +11987,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
@@ -11190,7 +11995,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="38" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -11198,7 +12003,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="18"/>
@@ -11206,25 +12011,25 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -11248,7 +12053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11260,17 +12065,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11284,7 +12089,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11310,152 +12115,210 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>478</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>480</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>484</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>494</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>495</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>497</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>493</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>499</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -11533,7 +12396,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11545,17 +12408,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11569,7 +12432,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11595,152 +12458,210 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>478</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>480</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>484</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>494</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>495</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>497</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>493</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>499</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -11818,7 +12739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11831,17 +12752,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11855,7 +12776,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -11881,152 +12802,210 @@
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>518</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>519</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>520</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>526</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>527</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>528</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>530</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>531</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>532</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>533</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
@@ -12103,7 +13082,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12115,17 +13094,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12139,7 +13118,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -12165,72 +13144,102 @@
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>457</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>463</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>477</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>479</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>481</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>483</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="13.5">
@@ -12253,72 +13262,102 @@
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>518</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>519</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>520</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="17"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
@@ -12396,8 +13435,8 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12410,17 +13449,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D1" s="33"/>
       <c r="F1" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12434,7 +13473,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
@@ -12460,8 +13499,12 @@
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -12476,8 +13519,12 @@
       <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
@@ -12492,8 +13539,12 @@
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>405</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
@@ -12544,8 +13595,12 @@
       <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
@@ -12564,8 +13619,12 @@
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>408</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="13.5">
@@ -12588,64 +13647,96 @@
       <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>463</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>477</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>479</v>
+      </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>481</v>
+      </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>483</v>
+      </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="13.5">
@@ -12668,64 +13759,96 @@
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>518</v>
+      </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>519</v>
+      </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>520</v>
+      </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>522</v>
+      </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
